--- a/data/long_razon/P23_6-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_6-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-35,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-28,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-31,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-63,78; 14,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 201,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 12,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 62,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,37; -3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 76,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 28,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 30,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 37,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 28,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 20,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 16,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-24,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 57,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 14,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 30,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 89,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 27,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 33,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 11,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 29,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 11,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 30,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 4,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 23,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_6-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_6-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_6-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_6-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.3180782149506684</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4677630406782141</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2355408218483309</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>-0.2584341837320575</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.007451315485115125</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.4947254417938411</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>-0.281455428600156</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.186699163907695</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.3737976322911497</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6337820646032161</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1658869540295125</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3799764352826189</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.5537284534255662</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3120766808777398</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.09796306552140348</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.5165056630977104</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1319623369652879</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.03650282345823625</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.2911544309501937</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.968928005129847</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.332511075853524</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.2085913197080747</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.4690453314015138</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.52957380850784</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.08173906447686355</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7625596601870607</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.053900655430502</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.083821925667772</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.07134283644759884</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1283285762645286</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>0.06424274874458073</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.05713661942619823</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.07017412439775775</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>0.07375019992203545</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.06435179815284113</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.09997870232951193</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2943345655974282</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3494129773830658</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2928554430106539</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.2194843700775886</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2940787663178653</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2106835916668052</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.1623051436401007</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2491384242070722</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1550175405665002</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.6846297514195333</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3505362959836483</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.7836983188876441</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.4347269931173801</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.2313581352880255</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.49285636469403</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.4112661604418378</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.1898743705746577</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.5051110169028544</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.1972092192573112</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2594090523713518</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.9350004608680154</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>-0.1075842660406399</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.3577757707014923</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.5823889551653668</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.03130730965548401</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.02624765131573441</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.7326937675892414</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.2867107570965368</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5214404164790829</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1147237037652829</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.4052605134854175</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.05790916845875152</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.1476488543665387</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.2749077370105312</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2074908493133319</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.2546986537555553</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.022121967901455</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.1918585894769872</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.336232762494928</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.2417582093675614</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.8658361552253744</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.230254391541776</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.3518211837849626</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.3365390556799133</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.370044266745422</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.04046686084537322</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.03207330296187301</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3323562002274654</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>-0.06427655965736188</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.0686015518167175</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3156938722292036</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>-0.01659759677607607</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.019363768779575</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3236909672615339</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.2194223711314718</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.241391622653697</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.03061044381639195</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.2546291936370381</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1150644499616506</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.06811028278278231</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>-0.1826732524562245</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1250147976473629</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.08582340668912639</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.4102331451887257</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2834914276764804</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.816737659047118</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.1648456032648912</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2832407130568671</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.6362446850545417</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.1742620014050313</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.1915301710282728</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.5592506381063567</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
